--- a/base_convert_fields.xlsx
+++ b/base_convert_fields.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\KiCAD\projects\base_convert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A1DECE-2555-4643-B14C-ECFB3096B467}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="219">
   <si>
     <t>Refs</t>
   </si>
@@ -40,31 +46,28 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve"> H 6100 650 50 0001 C CNN </t>
-  </si>
-  <si>
     <t>BT1</t>
   </si>
   <si>
-    <t>HOLDER BATT 2-AA CELLS PC MNT</t>
+    <t>HOLDER BATT 4-AA CELLS PC MNT</t>
   </si>
   <si>
     <t>MPD (Memory Protection Devices)</t>
   </si>
   <si>
-    <t>BC2AAPC</t>
+    <t>BC4AAPC</t>
   </si>
   <si>
     <t>PC Pin</t>
   </si>
   <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Memory%20Protection%20PDFs/BC2AAPC.pdf</t>
-  </si>
-  <si>
-    <t>MPD:BC2AAPC</t>
-  </si>
-  <si>
-    <t>2x AA Battery</t>
+    <t>http://www.memoryprotectiondevices.com/datasheets/BC4AAPC-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>MPD:BC4AAPC</t>
+  </si>
+  <si>
+    <t>4 Cell AA Battery</t>
   </si>
   <si>
     <t>C1</t>
@@ -181,10 +184,10 @@
     <t>BIT1</t>
   </si>
   <si>
-    <t>DS1-DS5</t>
-  </si>
-  <si>
-    <t>LED 7-SEG .40" 2DGT SUPER RED CA</t>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>LED 7-SEG .40\" 2DGT SUPER RED CA</t>
   </si>
   <si>
     <t>Lite-On Inc.</t>
@@ -193,7 +196,7 @@
     <t>LTD-4608JR</t>
   </si>
   <si>
-    <t>10-DIP (0.400", 10.16mm)</t>
+    <t>10-DIP</t>
   </si>
   <si>
     <t>https://media.digikey.com/pdf/Data%20Sheets/Lite-On%20PDFs/LTD-4608JR.pdf</t>
@@ -202,7 +205,19 @@
     <t>Lite-On:Display_Lite-On_LTD-4608JR</t>
   </si>
   <si>
-    <t>10-DIP (0.400</t>
+    <t>DS2</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>DS3</t>
+  </si>
+  <si>
+    <t>DS4</t>
+  </si>
+  <si>
+    <t>DS5</t>
   </si>
   <si>
     <t>J1</t>
@@ -214,6 +229,12 @@
     <t>ISP</t>
   </si>
   <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -223,7 +244,7 @@
     <t>Q_PMOS_GSD</t>
   </si>
   <si>
-    <t>Q3, Q10, Q18, Q26</t>
+    <t>Q10</t>
   </si>
   <si>
     <t>TRANS PNP 40V 0.2A SOT23</t>
@@ -244,7 +265,7 @@
     <t>Q_PNP_BEC</t>
   </si>
   <si>
-    <t>Q11-Q17, Q22-Q25, Q27</t>
+    <t>Q11</t>
   </si>
   <si>
     <t>TRANSISTOR, NPN, 40V, 0.2A, 100A</t>
@@ -262,7 +283,28 @@
     <t>Q_NPN_BEC</t>
   </si>
   <si>
-    <t>Q4, Q19</t>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
   </si>
   <si>
     <t>TRANS PNP 40V 0.2A SOT24</t>
@@ -271,7 +313,7 @@
     <t>PMBT3906,236</t>
   </si>
   <si>
-    <t>Q2, Q5</t>
+    <t>Q2</t>
   </si>
   <si>
     <t>TRANS PNP 40V 0.2A SOT25</t>
@@ -280,7 +322,7 @@
     <t>PMBT3906,237</t>
   </si>
   <si>
-    <t>Q6, Q20</t>
+    <t>Q20</t>
   </si>
   <si>
     <t>TRANS PNP 40V 0.2A SOT26</t>
@@ -289,7 +331,7 @@
     <t>PMBT3906,238</t>
   </si>
   <si>
-    <t>Q7, Q21</t>
+    <t>Q21</t>
   </si>
   <si>
     <t>TRANS PNP 40V 0.2A SOT27</t>
@@ -298,6 +340,39 @@
     <t>PMBT3906,239</t>
   </si>
   <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
     <t>Q8</t>
   </si>
   <si>
@@ -316,7 +391,7 @@
     <t>PMBT3906,241</t>
   </si>
   <si>
-    <t>R1, R2</t>
+    <t>R1</t>
   </si>
   <si>
     <t>Resistors_SMD:R_0805</t>
@@ -325,87 +400,159 @@
     <t>20k</t>
   </si>
   <si>
-    <t>R3-R11, R19-R29, R34-R38, R40</t>
+    <t>R10</t>
   </si>
   <si>
     <t>4.7k</t>
   </si>
   <si>
-    <t>R12-R18, R30-R33, R39</t>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
   </si>
   <si>
     <t>Resistors_SMD:R_0603</t>
   </si>
   <si>
-    <t>1k</t>
+    <t>150</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 12V</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>PTS645SK95SMTR92LFS</t>
+  </si>
+  <si>
+    <t>6mm SMT</t>
+  </si>
+  <si>
+    <t>https://www.ckswitches.com/media/1471/pts645.pdf</t>
+  </si>
+  <si>
+    <t>CLEAR</t>
+  </si>
+  <si>
+    <t>SW19</t>
+  </si>
+  <si>
     <t>Buttons_Switches_THT:SW_TH_Tactile_Omron_B3F-10xx</t>
   </si>
   <si>
-    <t>CLEAR</t>
-  </si>
-  <si>
-    <t>SW10</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>SW11</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>SW12</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>SW13</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>SW14</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>SW15</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>SW16</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>SW17</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>SW18</t>
-  </si>
-  <si>
-    <t>B15</t>
-  </si>
-  <si>
-    <t>SW19</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -433,9 +580,6 @@
     <t>SW22</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -481,12 +625,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>SW3</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
     <t>SW30</t>
   </si>
   <si>
@@ -517,42 +655,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>SW4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>SW5</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>SW6</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>SW7</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>SW8</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>SW9</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -568,29 +670,31 @@
     <t>64-LQFP (10x10)</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/msp430fr4131.pdf</t>
+    <t>http://www.ti.com/lit/ds/symlink/msp430fr2032.pdf</t>
   </si>
   <si>
     <t>Housings_QFP:LQFP-64_10x10mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>MSP430FR2033IPMR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -606,15 +710,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -902,20 +1015,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -940,1008 +1054,1999 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s"/>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s"/>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="H21" t="s">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="I21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s"/>
-      <c r="G22" t="s">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="H22" t="s">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>66</v>
-      </c>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
       </c>
       <c r="G26" t="s">
         <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
         <v>67</v>
       </c>
       <c r="H27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
         <v>96</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" t="s"/>
-      <c r="G32" t="s">
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="H32" t="s">
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" t="s"/>
-      <c r="G33" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
         <v>105</v>
       </c>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="B53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="F40" t="s"/>
-      <c r="G40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="E53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
+      <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="F41" t="s"/>
-      <c r="G41" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>123</v>
       </c>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s">
-        <v>109</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G55" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="H55" t="s">
         <v>125</v>
       </c>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" t="s">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+      <c r="G56" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" t="s">
         <v>127</v>
       </c>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s">
-        <v>109</v>
-      </c>
-      <c r="H44" t="s">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
+      <c r="G57" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>129</v>
       </c>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s">
-        <v>109</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G58" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
+      <c r="H58" t="s">
         <v>131</v>
       </c>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>132</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
+      <c r="G60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="F47" t="s"/>
-      <c r="G47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="G62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>136</v>
       </c>
-      <c r="F48" t="s"/>
-      <c r="G48" t="s">
-        <v>109</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
+      <c r="G64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>138</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>139</v>
       </c>
-      <c r="C49" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" t="s"/>
-      <c r="G49" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G66" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+      <c r="G67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>141</v>
       </c>
-      <c r="F50" t="s"/>
-      <c r="G50" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G68" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+      <c r="G69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>143</v>
       </c>
-      <c r="F51" t="s"/>
-      <c r="G51" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G70" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+      <c r="G71" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="F52" t="s"/>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G72" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
+      <c r="G73" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>147</v>
       </c>
-      <c r="F53" t="s"/>
-      <c r="G53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+      <c r="G75" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-      <c r="F54" t="s"/>
-      <c r="G54" t="s">
-        <v>109</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G76" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+      <c r="G77" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>151</v>
       </c>
-      <c r="F55" t="s"/>
-      <c r="G55" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G78" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+      <c r="G79" t="s">
+        <v>130</v>
+      </c>
+      <c r="H79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>153</v>
       </c>
-      <c r="F56" t="s"/>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G80" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="G81" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>155</v>
       </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" t="s"/>
-      <c r="G57" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G82" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="G83" t="s">
+        <v>124</v>
+      </c>
+      <c r="H83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>157</v>
       </c>
-      <c r="F58" t="s"/>
-      <c r="G58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
+      <c r="G85" t="s">
+        <v>124</v>
+      </c>
+      <c r="H85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>159</v>
       </c>
-      <c r="F59" t="s"/>
-      <c r="G59" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G86" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
+      <c r="G87" t="s">
+        <v>130</v>
+      </c>
+      <c r="H87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>161</v>
       </c>
-      <c r="F60" t="s"/>
-      <c r="G60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G88" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+      <c r="G89" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>163</v>
       </c>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s">
-        <v>109</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G90" t="s">
+        <v>124</v>
+      </c>
+      <c r="H90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
+      <c r="G91" t="s">
+        <v>124</v>
+      </c>
+      <c r="H91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>165</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G92" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
+      <c r="G93" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>167</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s">
-        <v>109</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G94" t="s">
+        <v>124</v>
+      </c>
+      <c r="H94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
+      <c r="B95" t="s">
         <v>169</v>
       </c>
-      <c r="F64" t="s"/>
-      <c r="G64" t="s">
-        <v>109</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="C95" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
+      <c r="D95" t="s">
         <v>171</v>
       </c>
-      <c r="F65" t="s"/>
-      <c r="G65" t="s">
-        <v>109</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="E95" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
+      <c r="F95" t="s">
         <v>173</v>
       </c>
-      <c r="F66" t="s"/>
-      <c r="G66" t="s">
-        <v>109</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="H95" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>175</v>
       </c>
-      <c r="F67" t="s"/>
-      <c r="G67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
+      <c r="H96" t="s">
         <v>177</v>
       </c>
-      <c r="F68" t="s"/>
-      <c r="G68" t="s">
-        <v>109</v>
-      </c>
-      <c r="H68" t="s">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
+      <c r="G97" t="s">
         <v>179</v>
       </c>
-      <c r="B69" t="s">
+      <c r="H97" t="s">
         <v>180</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>181</v>
       </c>
-      <c r="D69" t="s">
+      <c r="B98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" t="s">
+        <v>171</v>
+      </c>
+      <c r="E98" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" t="s">
+        <v>176</v>
+      </c>
+      <c r="H98" t="s">
         <v>182</v>
       </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>183</v>
       </c>
-      <c r="F69" t="s">
+      <c r="B99" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
+        <v>171</v>
+      </c>
+      <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" t="s">
+        <v>176</v>
+      </c>
+      <c r="H99" t="s">
         <v>184</v>
       </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>185</v>
       </c>
-      <c r="H69" t="s">
-        <v>182</v>
+      <c r="B100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" t="s">
+        <v>173</v>
+      </c>
+      <c r="G100" t="s">
+        <v>176</v>
+      </c>
+      <c r="H100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" t="s">
+        <v>171</v>
+      </c>
+      <c r="E101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" t="s">
+        <v>173</v>
+      </c>
+      <c r="G101" t="s">
+        <v>176</v>
+      </c>
+      <c r="H101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" t="s">
+        <v>171</v>
+      </c>
+      <c r="E102" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" t="s">
+        <v>173</v>
+      </c>
+      <c r="G102" t="s">
+        <v>176</v>
+      </c>
+      <c r="H102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>171</v>
+      </c>
+      <c r="E103" t="s">
+        <v>172</v>
+      </c>
+      <c r="F103" t="s">
+        <v>173</v>
+      </c>
+      <c r="G103" t="s">
+        <v>176</v>
+      </c>
+      <c r="H103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" t="s">
+        <v>169</v>
+      </c>
+      <c r="C104" t="s">
+        <v>170</v>
+      </c>
+      <c r="D104" t="s">
+        <v>171</v>
+      </c>
+      <c r="E104" t="s">
+        <v>172</v>
+      </c>
+      <c r="F104" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" t="s">
+        <v>176</v>
+      </c>
+      <c r="H104" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>171</v>
+      </c>
+      <c r="E105" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G105" t="s">
+        <v>176</v>
+      </c>
+      <c r="H105" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" t="s">
+        <v>176</v>
+      </c>
+      <c r="H106" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>199</v>
+      </c>
+      <c r="B107" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" t="s">
+        <v>171</v>
+      </c>
+      <c r="E107" t="s">
+        <v>172</v>
+      </c>
+      <c r="F107" t="s">
+        <v>173</v>
+      </c>
+      <c r="G107" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" t="s">
+        <v>171</v>
+      </c>
+      <c r="E108" t="s">
+        <v>172</v>
+      </c>
+      <c r="F108" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" t="s">
+        <v>176</v>
+      </c>
+      <c r="H108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" t="s">
+        <v>172</v>
+      </c>
+      <c r="F109" t="s">
+        <v>173</v>
+      </c>
+      <c r="G109" t="s">
+        <v>176</v>
+      </c>
+      <c r="H109" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" t="s">
+        <v>171</v>
+      </c>
+      <c r="E110" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110" t="s">
+        <v>173</v>
+      </c>
+      <c r="G110" t="s">
+        <v>176</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>169</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" t="s">
+        <v>172</v>
+      </c>
+      <c r="F111" t="s">
+        <v>173</v>
+      </c>
+      <c r="G111" t="s">
+        <v>176</v>
+      </c>
+      <c r="H111" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" t="s">
+        <v>172</v>
+      </c>
+      <c r="F112" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" t="s">
+        <v>176</v>
+      </c>
+      <c r="H112" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D113" t="s">
+        <v>214</v>
+      </c>
+      <c r="E113" t="s">
+        <v>215</v>
+      </c>
+      <c r="F113" t="s">
+        <v>216</v>
+      </c>
+      <c r="G113" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/base_convert_fields.xlsx
+++ b/base_convert_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\KiCAD\projects\base_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A1DECE-2555-4643-B14C-ECFB3096B467}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C9F72-EFA4-4A82-93A9-AB0CD4334817}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="222">
   <si>
     <t>Refs</t>
   </si>
@@ -208,9 +208,6 @@
     <t>DS2</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
     <t>DS3</t>
   </si>
   <si>
@@ -677,16 +674,35 @@
   </si>
   <si>
     <t>MSP430FR2033IPMR</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 20V 5.3A SOT-23</t>
+  </si>
+  <si>
+    <t>SI2323DDS-T1-GE3</t>
+  </si>
+  <si>
+    <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/64004/si2323dds.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,8 +728,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,13 +1039,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
@@ -1333,7 +1355,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -1359,7 +1381,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -1385,7 +1407,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -1411,1642 +1433,1646 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
         <v>66</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H28" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>77</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>78</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
         <v>79</v>
-      </c>
-      <c r="G29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" t="s">
         <v>84</v>
       </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" t="s">
         <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" t="s">
         <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>83</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="s">
         <v>84</v>
       </c>
-      <c r="E32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
         <v>85</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>83</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
         <v>84</v>
       </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
         <v>85</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
         <v>85</v>
-      </c>
-      <c r="G34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
         <v>85</v>
-      </c>
-      <c r="G35" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>83</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s">
         <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>78</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
         <v>79</v>
-      </c>
-      <c r="G37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
         <v>95</v>
       </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
       <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
         <v>78</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
         <v>79</v>
-      </c>
-      <c r="G38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>99</v>
-      </c>
       <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" t="s">
         <v>79</v>
-      </c>
-      <c r="G39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
         <v>101</v>
       </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" t="s">
-        <v>102</v>
-      </c>
       <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
         <v>78</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
         <v>79</v>
-      </c>
-      <c r="G40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" t="s">
-        <v>105</v>
-      </c>
       <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
         <v>78</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
         <v>79</v>
-      </c>
-      <c r="G41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>83</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
         <v>84</v>
       </c>
-      <c r="E42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
         <v>85</v>
-      </c>
-      <c r="G42" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
         <v>82</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
         <v>84</v>
       </c>
-      <c r="E43" t="s">
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" t="s">
         <v>85</v>
-      </c>
-      <c r="G43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
         <v>82</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>83</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
         <v>84</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" t="s">
         <v>85</v>
-      </c>
-      <c r="G44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" t="s">
         <v>84</v>
       </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
         <v>85</v>
-      </c>
-      <c r="G45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
         <v>75</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>76</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>78</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
         <v>79</v>
-      </c>
-      <c r="G46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
         <v>82</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>83</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F47" t="s">
         <v>84</v>
       </c>
-      <c r="E47" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s">
         <v>85</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
         <v>75</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>76</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>77</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>78</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s">
         <v>79</v>
-      </c>
-      <c r="G48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="C49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" t="s">
-        <v>96</v>
-      </c>
       <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s">
         <v>78</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
         <v>79</v>
-      </c>
-      <c r="G49" t="s">
-        <v>72</v>
-      </c>
-      <c r="H49" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" t="s">
         <v>98</v>
       </c>
-      <c r="C50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" t="s">
-        <v>99</v>
-      </c>
       <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s">
         <v>78</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
         <v>79</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" t="s">
-        <v>102</v>
-      </c>
       <c r="E51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s">
         <v>78</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s">
         <v>79</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
         <v>104</v>
       </c>
-      <c r="C52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
         <v>78</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
         <v>79</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" t="s">
-        <v>119</v>
-      </c>
       <c r="E53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s">
         <v>78</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s">
         <v>79</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
         <v>120</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" t="s">
-        <v>122</v>
-      </c>
       <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s">
         <v>78</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
         <v>79</v>
-      </c>
-      <c r="G54" t="s">
-        <v>72</v>
-      </c>
-      <c r="H54" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" t="s">
         <v>123</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>124</v>
-      </c>
-      <c r="H55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" t="s">
         <v>126</v>
-      </c>
-      <c r="G56" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
         <v>129</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>130</v>
-      </c>
-      <c r="H58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" t="s">
         <v>130</v>
-      </c>
-      <c r="H59" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" t="s">
         <v>130</v>
-      </c>
-      <c r="H60" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G61" t="s">
+        <v>129</v>
+      </c>
+      <c r="H61" t="s">
         <v>130</v>
-      </c>
-      <c r="H61" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G62" t="s">
+        <v>129</v>
+      </c>
+      <c r="H62" t="s">
         <v>130</v>
-      </c>
-      <c r="H62" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" t="s">
         <v>130</v>
-      </c>
-      <c r="H63" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" t="s">
         <v>130</v>
-      </c>
-      <c r="H64" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G66" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" t="s">
         <v>124</v>
-      </c>
-      <c r="H66" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" t="s">
         <v>130</v>
-      </c>
-      <c r="H78" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G79" t="s">
+        <v>129</v>
+      </c>
+      <c r="H79" t="s">
         <v>130</v>
-      </c>
-      <c r="H79" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G80" t="s">
+        <v>129</v>
+      </c>
+      <c r="H80" t="s">
         <v>130</v>
-      </c>
-      <c r="H80" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G81" t="s">
+        <v>129</v>
+      </c>
+      <c r="H81" t="s">
         <v>130</v>
-      </c>
-      <c r="H81" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G87" t="s">
+        <v>129</v>
+      </c>
+      <c r="H87" t="s">
         <v>130</v>
-      </c>
-      <c r="H87" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G92" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
         <v>168</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>169</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>170</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>171</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>172</v>
       </c>
-      <c r="F95" t="s">
+      <c r="H95" t="s">
         <v>173</v>
-      </c>
-      <c r="H95" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" t="s">
+        <v>172</v>
+      </c>
+      <c r="G96" t="s">
         <v>175</v>
       </c>
-      <c r="B96" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" t="s">
-        <v>171</v>
-      </c>
-      <c r="E96" t="s">
-        <v>172</v>
-      </c>
-      <c r="F96" t="s">
-        <v>173</v>
-      </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>176</v>
-      </c>
-      <c r="H96" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97" t="s">
         <v>178</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>179</v>
-      </c>
-      <c r="H97" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F98" t="s">
+        <v>172</v>
+      </c>
+      <c r="G98" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" t="s">
         <v>181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" t="s">
-        <v>172</v>
-      </c>
-      <c r="F98" t="s">
-        <v>173</v>
-      </c>
-      <c r="G98" t="s">
-        <v>176</v>
-      </c>
-      <c r="H98" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" t="s">
+        <v>170</v>
+      </c>
+      <c r="E99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G99" t="s">
+        <v>175</v>
+      </c>
+      <c r="H99" t="s">
         <v>183</v>
-      </c>
-      <c r="B99" t="s">
-        <v>169</v>
-      </c>
-      <c r="C99" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" t="s">
-        <v>171</v>
-      </c>
-      <c r="E99" t="s">
-        <v>172</v>
-      </c>
-      <c r="F99" t="s">
-        <v>173</v>
-      </c>
-      <c r="G99" t="s">
-        <v>176</v>
-      </c>
-      <c r="H99" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F100" t="s">
+        <v>172</v>
+      </c>
+      <c r="G100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H100" t="s">
         <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" t="s">
-        <v>171</v>
-      </c>
-      <c r="E100" t="s">
-        <v>172</v>
-      </c>
-      <c r="F100" t="s">
-        <v>173</v>
-      </c>
-      <c r="G100" t="s">
-        <v>176</v>
-      </c>
-      <c r="H100" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E101" t="s">
+        <v>171</v>
+      </c>
+      <c r="F101" t="s">
+        <v>172</v>
+      </c>
+      <c r="G101" t="s">
+        <v>175</v>
+      </c>
+      <c r="H101" t="s">
         <v>187</v>
-      </c>
-      <c r="B101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C101" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" t="s">
-        <v>172</v>
-      </c>
-      <c r="F101" t="s">
-        <v>173</v>
-      </c>
-      <c r="G101" t="s">
-        <v>176</v>
-      </c>
-      <c r="H101" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" t="s">
+        <v>172</v>
+      </c>
+      <c r="G102" t="s">
+        <v>175</v>
+      </c>
+      <c r="H102" t="s">
         <v>189</v>
-      </c>
-      <c r="B102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" t="s">
-        <v>171</v>
-      </c>
-      <c r="E102" t="s">
-        <v>172</v>
-      </c>
-      <c r="F102" t="s">
-        <v>173</v>
-      </c>
-      <c r="G102" t="s">
-        <v>176</v>
-      </c>
-      <c r="H102" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103" t="s">
+        <v>170</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" t="s">
+        <v>172</v>
+      </c>
+      <c r="G103" t="s">
+        <v>175</v>
+      </c>
+      <c r="H103" t="s">
         <v>191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>169</v>
-      </c>
-      <c r="C103" t="s">
-        <v>170</v>
-      </c>
-      <c r="D103" t="s">
-        <v>171</v>
-      </c>
-      <c r="E103" t="s">
-        <v>172</v>
-      </c>
-      <c r="F103" t="s">
-        <v>173</v>
-      </c>
-      <c r="G103" t="s">
-        <v>176</v>
-      </c>
-      <c r="H103" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" t="s">
+        <v>170</v>
+      </c>
+      <c r="E104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" t="s">
+        <v>172</v>
+      </c>
+      <c r="G104" t="s">
+        <v>175</v>
+      </c>
+      <c r="H104" t="s">
         <v>193</v>
-      </c>
-      <c r="B104" t="s">
-        <v>169</v>
-      </c>
-      <c r="C104" t="s">
-        <v>170</v>
-      </c>
-      <c r="D104" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" t="s">
-        <v>172</v>
-      </c>
-      <c r="F104" t="s">
-        <v>173</v>
-      </c>
-      <c r="G104" t="s">
-        <v>176</v>
-      </c>
-      <c r="H104" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F105" t="s">
+        <v>172</v>
+      </c>
+      <c r="G105" t="s">
+        <v>175</v>
+      </c>
+      <c r="H105" t="s">
         <v>195</v>
-      </c>
-      <c r="B105" t="s">
-        <v>169</v>
-      </c>
-      <c r="C105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" t="s">
-        <v>171</v>
-      </c>
-      <c r="E105" t="s">
-        <v>172</v>
-      </c>
-      <c r="F105" t="s">
-        <v>173</v>
-      </c>
-      <c r="G105" t="s">
-        <v>176</v>
-      </c>
-      <c r="H105" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" t="s">
+        <v>168</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+      <c r="F106" t="s">
+        <v>172</v>
+      </c>
+      <c r="G106" t="s">
+        <v>175</v>
+      </c>
+      <c r="H106" t="s">
         <v>197</v>
-      </c>
-      <c r="B106" t="s">
-        <v>169</v>
-      </c>
-      <c r="C106" t="s">
-        <v>170</v>
-      </c>
-      <c r="D106" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" t="s">
-        <v>172</v>
-      </c>
-      <c r="F106" t="s">
-        <v>173</v>
-      </c>
-      <c r="G106" t="s">
-        <v>176</v>
-      </c>
-      <c r="H106" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" t="s">
+        <v>168</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G107" t="s">
+        <v>175</v>
+      </c>
+      <c r="H107" t="s">
         <v>199</v>
-      </c>
-      <c r="B107" t="s">
-        <v>169</v>
-      </c>
-      <c r="C107" t="s">
-        <v>170</v>
-      </c>
-      <c r="D107" t="s">
-        <v>171</v>
-      </c>
-      <c r="E107" t="s">
-        <v>172</v>
-      </c>
-      <c r="F107" t="s">
-        <v>173</v>
-      </c>
-      <c r="G107" t="s">
-        <v>176</v>
-      </c>
-      <c r="H107" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" t="s">
+        <v>172</v>
+      </c>
+      <c r="G108" t="s">
+        <v>175</v>
+      </c>
+      <c r="H108" t="s">
         <v>201</v>
-      </c>
-      <c r="B108" t="s">
-        <v>169</v>
-      </c>
-      <c r="C108" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" t="s">
-        <v>171</v>
-      </c>
-      <c r="E108" t="s">
-        <v>172</v>
-      </c>
-      <c r="F108" t="s">
-        <v>173</v>
-      </c>
-      <c r="G108" t="s">
-        <v>176</v>
-      </c>
-      <c r="H108" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F109" t="s">
+        <v>172</v>
+      </c>
+      <c r="G109" t="s">
+        <v>175</v>
+      </c>
+      <c r="H109" t="s">
         <v>203</v>
-      </c>
-      <c r="B109" t="s">
-        <v>169</v>
-      </c>
-      <c r="C109" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" t="s">
-        <v>171</v>
-      </c>
-      <c r="E109" t="s">
-        <v>172</v>
-      </c>
-      <c r="F109" t="s">
-        <v>173</v>
-      </c>
-      <c r="G109" t="s">
-        <v>176</v>
-      </c>
-      <c r="H109" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D110" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" t="s">
+        <v>172</v>
+      </c>
+      <c r="G110" t="s">
+        <v>175</v>
+      </c>
+      <c r="H110" t="s">
         <v>205</v>
-      </c>
-      <c r="B110" t="s">
-        <v>169</v>
-      </c>
-      <c r="C110" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" t="s">
-        <v>171</v>
-      </c>
-      <c r="E110" t="s">
-        <v>172</v>
-      </c>
-      <c r="F110" t="s">
-        <v>173</v>
-      </c>
-      <c r="G110" t="s">
-        <v>176</v>
-      </c>
-      <c r="H110" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" t="s">
+        <v>172</v>
+      </c>
+      <c r="G111" t="s">
+        <v>175</v>
+      </c>
+      <c r="H111" t="s">
         <v>207</v>
-      </c>
-      <c r="B111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" t="s">
-        <v>171</v>
-      </c>
-      <c r="E111" t="s">
-        <v>172</v>
-      </c>
-      <c r="F111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111" t="s">
-        <v>176</v>
-      </c>
-      <c r="H111" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" t="s">
+        <v>170</v>
+      </c>
+      <c r="E112" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" t="s">
+        <v>172</v>
+      </c>
+      <c r="G112" t="s">
+        <v>175</v>
+      </c>
+      <c r="H112" t="s">
         <v>209</v>
-      </c>
-      <c r="B112" t="s">
-        <v>169</v>
-      </c>
-      <c r="C112" t="s">
-        <v>170</v>
-      </c>
-      <c r="D112" t="s">
-        <v>171</v>
-      </c>
-      <c r="E112" t="s">
-        <v>172</v>
-      </c>
-      <c r="F112" t="s">
-        <v>173</v>
-      </c>
-      <c r="G112" t="s">
-        <v>176</v>
-      </c>
-      <c r="H112" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
         <v>211</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>212</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>213</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>214</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>215</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>216</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>217</v>
-      </c>
-      <c r="H113" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/base_convert_fields.xlsx
+++ b/base_convert_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\KiCAD\projects\base_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C9F72-EFA4-4A82-93A9-AB0CD4334817}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2823F-D544-4E1B-B5A4-AF4FEC0678B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="249">
   <si>
     <t>Refs</t>
   </si>
@@ -67,7 +67,7 @@
     <t>MPD:BC4AAPC</t>
   </si>
   <si>
-    <t>4 Cell AA Battery</t>
+    <t>4 Cell AA Battery Holder</t>
   </si>
   <si>
     <t>C1</t>
@@ -88,9 +88,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>LEDs:LED_D5.0mm</t>
-  </si>
-  <si>
     <t>BIT3</t>
   </si>
   <si>
@@ -235,6 +232,21 @@
     <t>Q1</t>
   </si>
   <si>
+    <t>MOSFET P-CH 20V 5.3A SOT-23</t>
+  </si>
+  <si>
+    <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>SI2323DDS-T1-GE3</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/64004/si2323dds.pdf</t>
+  </si>
+  <si>
     <t>TO_SOT_Packages_SMD:SOT-23</t>
   </si>
   <si>
@@ -253,9 +265,6 @@
     <t>PMBT3906,235</t>
   </si>
   <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
     <t>https://assets.nexperia.com/documents/data-sheet/PMBT3906.pdf</t>
   </si>
   <si>
@@ -391,10 +400,13 @@
     <t>R1</t>
   </si>
   <si>
+    <t>NONE</t>
+  </si>
+  <si>
     <t>Resistors_SMD:R_0805</t>
   </si>
   <si>
-    <t>20k</t>
+    <t>102k</t>
   </si>
   <si>
     <t>R10</t>
@@ -439,6 +451,9 @@
     <t>R2</t>
   </si>
   <si>
+    <t>25.5k</t>
+  </si>
+  <si>
     <t>R20</t>
   </si>
   <si>
@@ -667,25 +682,91 @@
     <t>64-LQFP (10x10)</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/msp430fr2032.pdf</t>
-  </si>
-  <si>
-    <t>Housings_QFP:LQFP-64_10x10mm_Pitch0.5mm</t>
+    <t>TPS78233DDCR</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>VTARG_EN</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>PM64</t>
   </si>
   <si>
     <t>MSP430FR2033IPMR</t>
   </si>
   <si>
-    <t>MOSFET P-CH 20V 5.3A SOT-23</t>
-  </si>
-  <si>
-    <t>SI2323DDS-T1-GE3</t>
-  </si>
-  <si>
-    <t>Vishay Siliconix</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/64004/si2323dds.pdf</t>
+    <t>LED RED CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc.</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>150080RS75001</t>
+  </si>
+  <si>
+    <t>150080RS75002</t>
+  </si>
+  <si>
+    <t>150080RS75003</t>
+  </si>
+  <si>
+    <t>150080RS75004</t>
+  </si>
+  <si>
+    <t>150080RS75005</t>
+  </si>
+  <si>
+    <t>150080RS75006</t>
+  </si>
+  <si>
+    <t>150080RS75007</t>
+  </si>
+  <si>
+    <t>150080RS75008</t>
+  </si>
+  <si>
+    <t>150080RS75009</t>
+  </si>
+  <si>
+    <t>150080RS75010</t>
+  </si>
+  <si>
+    <t>150080RS75011</t>
+  </si>
+  <si>
+    <t>150080RS75012</t>
+  </si>
+  <si>
+    <t>150080RS75013</t>
+  </si>
+  <si>
+    <t>150080RS75014</t>
+  </si>
+  <si>
+    <t>150080RS75015</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>http://katalog.we-online.de/led/datasheet/150080RS75000.pdf</t>
   </si>
 </sst>
 </file>
@@ -728,13 +809,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,18 +1119,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,6 +1189,7 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>17</v>
       </c>
@@ -1118,6 +1201,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -1129,1946 +1213,2295 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11" t="s">
         <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="s">
         <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14" t="s">
         <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="s">
         <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" t="s">
         <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="s">
         <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18" t="s">
         <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19" t="s">
         <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>59</v>
       </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>59</v>
       </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>59</v>
       </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>58</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>58</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>59</v>
       </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="s">
         <v>65</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>220</v>
+      <c r="C28" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>219</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
         <v>86</v>
       </c>
-      <c r="B31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
         <v>87</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" t="s">
-        <v>84</v>
-      </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s">
-        <v>71</v>
-      </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
-      </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s">
-        <v>71</v>
-      </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" t="s">
-        <v>71</v>
-      </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
         <v>75</v>
       </c>
-      <c r="D46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" t="s">
-        <v>78</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="E48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
         <v>75</v>
       </c>
-      <c r="D49" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s">
         <v>75</v>
       </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s">
         <v>75</v>
       </c>
-      <c r="D51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s">
         <v>75</v>
       </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" t="s">
-        <v>71</v>
-      </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s">
         <v>75</v>
       </c>
-      <c r="D53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s">
-        <v>78</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
       <c r="H53" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s">
         <v>75</v>
       </c>
-      <c r="D54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55"/>
       <c r="G55" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H56" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" t="s">
         <v>127</v>
       </c>
-      <c r="G57" t="s">
-        <v>123</v>
-      </c>
       <c r="H57" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F58"/>
       <c r="G58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H60" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="s">
         <v>133</v>
       </c>
-      <c r="G61" t="s">
-        <v>129</v>
-      </c>
       <c r="H61" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
         <v>134</v>
-      </c>
-      <c r="G62" t="s">
-        <v>129</v>
-      </c>
-      <c r="H62" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>136</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F64"/>
       <c r="G64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>137</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F65"/>
       <c r="G65" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>138</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F67"/>
       <c r="G67" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H67" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F68"/>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H68" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F69"/>
       <c r="G69" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H69" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F70"/>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H70" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H71" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="F72"/>
       <c r="G72" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H72" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F73"/>
       <c r="G73" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H73" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>146</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F74"/>
       <c r="G74" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H74" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F75"/>
       <c r="G75" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H75" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>148</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="F76"/>
       <c r="G76" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H76" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>149</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>150</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F78"/>
       <c r="G78" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>151</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F79"/>
       <c r="G79" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>152</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F80"/>
       <c r="G80" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H80" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>153</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="F81"/>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>154</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F82"/>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>155</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F83"/>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H83" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>156</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F84"/>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>157</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="F85"/>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H85" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>158</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F86"/>
       <c r="G86" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H86" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>159</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F87"/>
       <c r="G87" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>160</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F88"/>
       <c r="G88" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H88" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>161</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="F89"/>
       <c r="G89" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>162</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="F90"/>
       <c r="G90" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>163</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="F91"/>
       <c r="G91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="F92"/>
       <c r="G92" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H92" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>165</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F93"/>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>166</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F94"/>
       <c r="G94" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H94" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F95" t="s">
-        <v>172</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G95"/>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
         <v>174</v>
       </c>
-      <c r="B96" t="s">
-        <v>168</v>
-      </c>
-      <c r="C96" t="s">
-        <v>169</v>
-      </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G96" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H96" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>177</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F97"/>
       <c r="G97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" t="s">
+        <v>176</v>
+      </c>
+      <c r="F98" t="s">
+        <v>177</v>
+      </c>
+      <c r="G98" t="s">
         <v>180</v>
       </c>
-      <c r="B98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" t="s">
-        <v>171</v>
-      </c>
-      <c r="F98" t="s">
-        <v>172</v>
-      </c>
-      <c r="G98" t="s">
-        <v>175</v>
-      </c>
       <c r="H98" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H99" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B100" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E100" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H100" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H101" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D102" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H102" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F103" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H103" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G104" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H104" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F105" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H105" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F106" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H106" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G107" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H107" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F108" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G108" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H108" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E109" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F109" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H109" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B110" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F110" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H110" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F111" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H111" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D112" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H112" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
-      </c>
-      <c r="F113" t="s">
-        <v>215</v>
-      </c>
-      <c r="G113" t="s">
-        <v>216</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F113"/>
+      <c r="G113"/>
       <c r="H113" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="D115" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" t="s">
+        <v>126</v>
+      </c>
+      <c r="E116" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="s">
+        <v>227</v>
+      </c>
+      <c r="H117" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/base_convert_fields.xlsx
+++ b/base_convert_fields.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Dropbox\KiCAD\projects\base_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB2823F-D544-4E1B-B5A4-AF4FEC0678B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB829F8F-CBAA-4506-8E41-55D6C8FA2B71}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="285">
   <si>
     <t>Refs</t>
   </si>
@@ -73,6 +73,21 @@
     <t>C1</t>
   </si>
   <si>
+    <t>CAP CER 10UF 6.3V X5R 0805</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>CL21A106KQFNNNG</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>http://www.samsungsem.com/kr/support/product-search/mlcc/CL21A106KQFNNNG.jsp</t>
+  </si>
+  <si>
     <t>Capacitors_SMD:C_0805</t>
   </si>
   <si>
@@ -82,102 +97,171 @@
     <t>C2</t>
   </si>
   <si>
+    <t>CAP CER 0.1UF 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>CL21B104KOANNNC</t>
+  </si>
+  <si>
+    <t>http://www.samsungsem.com/kr/support/product-search/mlcc/CL21B104KOANNNC.jsp</t>
+  </si>
+  <si>
     <t>100nF</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
+    <t>LED RED CLEAR 0805 SMD</t>
+  </si>
+  <si>
+    <t>Wurth Electronics Inc.</t>
+  </si>
+  <si>
+    <t>150080RS75000</t>
+  </si>
+  <si>
+    <t>http://katalog.we-online.de/led/datasheet/150080RS75000.pdf</t>
+  </si>
+  <si>
+    <t>LightPipe_Bivar:LED_0805_LightPipe_VLP</t>
+  </si>
+  <si>
     <t>BIT3</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
+    <t>150080RS75001</t>
+  </si>
+  <si>
     <t>BIT5</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
+    <t>150080RS75002</t>
+  </si>
+  <si>
     <t>BIT9</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
+    <t>150080RS75003</t>
+  </si>
+  <si>
     <t>BIT13</t>
   </si>
   <si>
     <t>D13</t>
   </si>
   <si>
+    <t>150080RS75004</t>
+  </si>
+  <si>
     <t>BIT0</t>
   </si>
   <si>
     <t>D14</t>
   </si>
   <si>
+    <t>150080RS75005</t>
+  </si>
+  <si>
     <t>BIT4</t>
   </si>
   <si>
     <t>D15</t>
   </si>
   <si>
+    <t>150080RS75006</t>
+  </si>
+  <si>
     <t>BIT8</t>
   </si>
   <si>
     <t>D16</t>
   </si>
   <si>
+    <t>150080RS75007</t>
+  </si>
+  <si>
     <t>BIT12</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
+    <t>150080RS75008</t>
+  </si>
+  <si>
     <t>BIT7</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
+    <t>150080RS75009</t>
+  </si>
+  <si>
     <t>BIT11</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
+    <t>150080RS75010</t>
+  </si>
+  <si>
     <t>BIT15</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
+    <t>150080RS75011</t>
+  </si>
+  <si>
     <t>BIT2</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
+    <t>150080RS75012</t>
+  </si>
+  <si>
     <t>BIT6</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
+    <t>150080RS75013</t>
+  </si>
+  <si>
     <t>BIT10</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
+    <t>150080RS75014</t>
+  </si>
+  <si>
     <t>BIT14</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
+    <t>150080RS75015</t>
+  </si>
+  <si>
     <t>BIT1</t>
   </si>
   <si>
@@ -226,7 +310,10 @@
     <t>J2</t>
   </si>
   <si>
-    <t>Extra</t>
+    <t>Pin_Headers:Pin_Header_Straight_1x10_Pitch2.54mm</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
   </si>
   <si>
     <t>Q1</t>
@@ -400,12 +487,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Resistors_SMD:R_0805</t>
-  </si>
-  <si>
     <t>102k</t>
   </si>
   <si>
@@ -550,9 +631,6 @@
     <t>PTS645SK95SMTR92LFS</t>
   </si>
   <si>
-    <t>6mm SMT</t>
-  </si>
-  <si>
     <t>https://www.ckswitches.com/media/1471/pts645.pdf</t>
   </si>
   <si>
@@ -562,9 +640,6 @@
     <t>SW19</t>
   </si>
   <si>
-    <t>Buttons_Switches_THT:SW_TH_Tactile_Omron_B3F-10xx</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -670,103 +745,136 @@
     <t>U1</t>
   </si>
   <si>
+    <t>IC REG LINEAR 3.3V 150MA SOT23-5</t>
+  </si>
+  <si>
+    <t>Microchip Technology</t>
+  </si>
+  <si>
+    <t>MIC5317-3.3YM5-TR</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>http://www.microchip.com/mymicrochip/filehandler.aspx?ddocname=en579427</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 16V X7R 0805</t>
+  </si>
+  <si>
+    <t>CL21B105KOFNNNG</t>
+  </si>
+  <si>
+    <t>http://www.samsungsem.com/kr/support/product-search/mlcc/CL21B105KOFNNNG.jsp</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>RES SMD 0 OHM JUMPER 1/4W 1206</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC1206JR-070RL</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>http://www.yageo.com/documents/recent/PYu-RC_Group_51_RoHS_L_9.pdf</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_1206</t>
+  </si>
+  <si>
+    <t>VTARG_EN</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Housings_QFP:LQFP-64_10x10mm_Pitch0.5mm</t>
+  </si>
+  <si>
+    <t>MSP430FR2033IPMR</t>
+  </si>
+  <si>
+    <t>RES SMD 4.7K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ472V</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0001+ERJ3GEYJ472V+7+WW</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603JR-07150RL</t>
+  </si>
+  <si>
+    <t>RES SMD 102K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>Rohm Semiconductor</t>
+  </si>
+  <si>
+    <t>MCR03ERTF1023</t>
+  </si>
+  <si>
+    <t>http://rohmfs.rohm.com/en/products/databook/datasheet/passive/resistor/chip_resistor/mcr_g.pdf</t>
+  </si>
+  <si>
+    <t>RES SMD 25.5K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>MCR03ERTF2552</t>
+  </si>
+  <si>
+    <t>SWITCH SLIDE DP4T 300MA 30V</t>
+  </si>
+  <si>
+    <t>SS-24E06-TG 5 (P)</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/C&amp;K/SS-24E06-TG_5_(P).pdf</t>
+  </si>
+  <si>
     <t>IC MCU 16BIT 15.5KB FRAM 64LQFP</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>MSP430FR4133IPMR</t>
-  </si>
-  <si>
-    <t>64-LQFP (10x10)</t>
-  </si>
-  <si>
-    <t>TPS78233DDCR</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>VTARG_EN</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>PM64</t>
-  </si>
-  <si>
-    <t>MSP430FR2033IPMR</t>
-  </si>
-  <si>
-    <t>LED RED CLEAR 0805 SMD</t>
-  </si>
-  <si>
-    <t>Wurth Electronics Inc.</t>
-  </si>
-  <si>
-    <t>150080RS75000</t>
-  </si>
-  <si>
-    <t>150080RS75001</t>
-  </si>
-  <si>
-    <t>150080RS75002</t>
-  </si>
-  <si>
-    <t>150080RS75003</t>
-  </si>
-  <si>
-    <t>150080RS75004</t>
-  </si>
-  <si>
-    <t>150080RS75005</t>
-  </si>
-  <si>
-    <t>150080RS75006</t>
-  </si>
-  <si>
-    <t>150080RS75007</t>
-  </si>
-  <si>
-    <t>150080RS75008</t>
-  </si>
-  <si>
-    <t>150080RS75009</t>
-  </si>
-  <si>
-    <t>150080RS75010</t>
-  </si>
-  <si>
-    <t>150080RS75011</t>
-  </si>
-  <si>
-    <t>150080RS75012</t>
-  </si>
-  <si>
-    <t>150080RS75013</t>
-  </si>
-  <si>
-    <t>150080RS75014</t>
-  </si>
-  <si>
-    <t>150080RS75015</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
-    <t>http://katalog.we-online.de/led/datasheet/150080RS75000.pdf</t>
+    <t>64LQFP</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/msp430fr2032.pdf</t>
+  </si>
+  <si>
+    <t>SMT</t>
   </si>
 </sst>
 </file>
@@ -832,6 +940,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC2E380C-4E1F-491A-84D1-C17D859ECDF3}" name="Table1" displayName="Table1" ref="A1:H117" totalsRowShown="0">
+  <autoFilter ref="A1:H117" xr:uid="{AF2ABC7A-88A1-4489-9A90-5160653AFBBF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F8B049EF-B10F-4ED8-AEE1-2520DDA5046E}" name="Refs"/>
+    <tableColumn id="2" xr3:uid="{62ACDA93-A3F4-4456-8DA4-21A769A733FC}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{F51A9E7C-D348-46A6-BDBA-086B44D17F2E}" name="Manufacture"/>
+    <tableColumn id="4" xr3:uid="{0D68953E-4FCD-4078-BB3F-4B45E87DCA12}" name="Mfg Part Number"/>
+    <tableColumn id="5" xr3:uid="{2E019FE4-6911-42FB-AC3E-D6407E03F667}" name="Package"/>
+    <tableColumn id="6" xr3:uid="{A23D5CF1-5E12-4478-9A12-A98080D432E6}" name="datasheet"/>
+    <tableColumn id="7" xr3:uid="{EB0745AB-FF5E-44FF-8B53-0CFBE6961F1D}" name="footprint"/>
+    <tableColumn id="8" xr3:uid="{FBA7398F-766A-499E-94DE-0F874EB4F95F}" name="value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1122,13 +1247,16 @@
   <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98:E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
@@ -1189,2323 +1317,2935 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="F3"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4"/>
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>231</v>
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G5"/>
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>232</v>
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6"/>
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7"/>
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>234</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8"/>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G9"/>
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>236</v>
+      <c r="D10" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10"/>
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11"/>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12"/>
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>239</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13"/>
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G14"/>
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>241</v>
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G15"/>
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>242</v>
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16"/>
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>243</v>
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G17"/>
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>244</v>
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18"/>
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>245</v>
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G19"/>
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>246</v>
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20"/>
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H39" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
         <v>102</v>
       </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
         <v>104</v>
       </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" t="s">
-        <v>75</v>
-      </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H41" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H42" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H43" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H44" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G45" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
         <v>104</v>
       </c>
-      <c r="E51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
       <c r="H51" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F52" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="C55" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55"/>
+        <v>273</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" t="s">
+        <v>274</v>
+      </c>
       <c r="G55" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="H55" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56"/>
-      <c r="G56" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H56" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57"/>
-      <c r="G57" t="s">
-        <v>127</v>
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H57" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58"/>
-      <c r="G58" t="s">
-        <v>133</v>
+        <v>159</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59" t="s">
-        <v>133</v>
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60" t="s">
-        <v>133</v>
+        <v>163</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" t="s">
-        <v>133</v>
+        <v>165</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63"/>
-      <c r="G63" t="s">
-        <v>133</v>
+        <v>166</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H63" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>140</v>
-      </c>
-      <c r="F64"/>
-      <c r="G64" t="s">
-        <v>133</v>
+        <v>167</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65"/>
-      <c r="G65" t="s">
-        <v>127</v>
+        <v>168</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
       <c r="C66" t="s">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66"/>
+        <v>276</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
-      </c>
-      <c r="F67"/>
-      <c r="G67" t="s">
-        <v>127</v>
+        <v>171</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H67" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68"/>
-      <c r="G68" t="s">
-        <v>127</v>
+        <v>172</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H68" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F69"/>
-      <c r="G69" t="s">
-        <v>127</v>
+        <v>173</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H69" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70" t="s">
-        <v>127</v>
+        <v>174</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H70" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71"/>
-      <c r="G71" t="s">
-        <v>127</v>
+        <v>175</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H71" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72"/>
-      <c r="G72" t="s">
-        <v>127</v>
+        <v>176</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H72" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73"/>
-      <c r="G73" t="s">
-        <v>127</v>
+        <v>177</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H73" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74"/>
-      <c r="G74" t="s">
-        <v>127</v>
+        <v>178</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H74" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75"/>
-      <c r="G75" t="s">
-        <v>127</v>
+        <v>179</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H75" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76"/>
-      <c r="G76" t="s">
-        <v>127</v>
+        <v>180</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H76" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="F77"/>
-      <c r="G77" t="s">
-        <v>127</v>
+        <v>181</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H77" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78"/>
-      <c r="G78" t="s">
-        <v>133</v>
+        <v>182</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79"/>
-      <c r="G79" t="s">
-        <v>133</v>
+        <v>183</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80"/>
-      <c r="G80" t="s">
-        <v>133</v>
+        <v>184</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81"/>
-      <c r="G81" t="s">
-        <v>133</v>
+        <v>185</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H81" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82"/>
-      <c r="G82" t="s">
-        <v>127</v>
+        <v>186</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H82" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F83"/>
-      <c r="G83" t="s">
-        <v>127</v>
-      </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>161</v>
-      </c>
-      <c r="F84"/>
-      <c r="G84" t="s">
-        <v>127</v>
+        <v>188</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H84" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>162</v>
-      </c>
-      <c r="F85"/>
-      <c r="G85" t="s">
-        <v>127</v>
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H85" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86" t="s">
-        <v>127</v>
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H86" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87" t="s">
-        <v>133</v>
+        <v>191</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88" t="s">
-        <v>127</v>
+        <v>192</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H88" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89" t="s">
-        <v>127</v>
+        <v>193</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H89" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90"/>
-      <c r="G90" t="s">
-        <v>127</v>
+        <v>194</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H90" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>168</v>
-      </c>
-      <c r="F91"/>
-      <c r="G91" t="s">
-        <v>127</v>
+        <v>195</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H91" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92"/>
-      <c r="G92" t="s">
-        <v>127</v>
+        <v>196</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H92" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93"/>
-      <c r="G93" t="s">
-        <v>127</v>
+        <v>197</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H93" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94"/>
-      <c r="G94" t="s">
-        <v>127</v>
+        <v>198</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H94" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G95"/>
       <c r="H95" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E96" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>177</v>
-      </c>
-      <c r="G96" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G96"/>
       <c r="H96" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>182</v>
-      </c>
-      <c r="F97"/>
+        <v>207</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G97" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="H97" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>175</v>
-      </c>
-      <c r="E98" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F98" t="s">
-        <v>177</v>
-      </c>
-      <c r="G98" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G98"/>
       <c r="H98" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D99" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F99" t="s">
-        <v>177</v>
-      </c>
-      <c r="G99" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G99"/>
       <c r="H99" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D100" t="s">
-        <v>175</v>
-      </c>
-      <c r="E100" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F100" t="s">
-        <v>177</v>
-      </c>
-      <c r="G100" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G100"/>
       <c r="H100" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
-      </c>
-      <c r="E101" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F101" t="s">
-        <v>177</v>
-      </c>
-      <c r="G101" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G101"/>
       <c r="H101" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D102" t="s">
-        <v>175</v>
-      </c>
-      <c r="E102" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F102" t="s">
-        <v>177</v>
-      </c>
-      <c r="G102" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G102"/>
       <c r="H102" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>175</v>
-      </c>
-      <c r="E103" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F103" t="s">
-        <v>177</v>
-      </c>
-      <c r="G103" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G103"/>
       <c r="H103" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
-      </c>
-      <c r="E104" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F104" t="s">
-        <v>177</v>
-      </c>
-      <c r="G104" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G104"/>
       <c r="H104" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="B105" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D105" t="s">
-        <v>175</v>
-      </c>
-      <c r="E105" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F105" t="s">
-        <v>177</v>
-      </c>
-      <c r="G105" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G105"/>
       <c r="H105" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="s">
         <v>201</v>
       </c>
-      <c r="B106" t="s">
-        <v>173</v>
-      </c>
-      <c r="C106" t="s">
-        <v>174</v>
-      </c>
       <c r="D106" t="s">
-        <v>175</v>
-      </c>
-      <c r="E106" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F106" t="s">
-        <v>177</v>
-      </c>
-      <c r="G106" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G106"/>
       <c r="H106" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>202</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
       </c>
-      <c r="B107" t="s">
-        <v>173</v>
-      </c>
-      <c r="C107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" t="s">
-        <v>175</v>
-      </c>
-      <c r="E107" t="s">
-        <v>176</v>
-      </c>
-      <c r="F107" t="s">
-        <v>177</v>
-      </c>
-      <c r="G107" t="s">
-        <v>180</v>
-      </c>
+      <c r="G107"/>
       <c r="H107" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D108" t="s">
-        <v>175</v>
-      </c>
-      <c r="E108" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F108" t="s">
-        <v>177</v>
-      </c>
-      <c r="G108" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G108"/>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D109" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F109" t="s">
-        <v>177</v>
-      </c>
-      <c r="G109" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G109"/>
       <c r="H109" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D110" t="s">
-        <v>175</v>
-      </c>
-      <c r="E110" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F110" t="s">
-        <v>177</v>
-      </c>
-      <c r="G110" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G110"/>
       <c r="H110" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D111" t="s">
-        <v>175</v>
-      </c>
-      <c r="E111" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>177</v>
-      </c>
-      <c r="G111" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G111"/>
       <c r="H111" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D112" t="s">
-        <v>175</v>
-      </c>
-      <c r="E112" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="F112" t="s">
-        <v>177</v>
-      </c>
-      <c r="G112" t="s">
-        <v>180</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G112"/>
       <c r="H112" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C113" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
-      </c>
-      <c r="F113"/>
-      <c r="G113"/>
+        <v>244</v>
+      </c>
+      <c r="F113" t="s">
+        <v>245</v>
+      </c>
+      <c r="G113" t="s">
+        <v>246</v>
+      </c>
       <c r="H113" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="E114" t="s">
-        <v>126</v>
-      </c>
-      <c r="F114"/>
-      <c r="G114"/>
+        <v>20</v>
+      </c>
+      <c r="F114" t="s">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
       <c r="H114" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
-      </c>
-      <c r="F115"/>
-      <c r="G115"/>
+        <v>20</v>
+      </c>
+      <c r="F115" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
       <c r="H115" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
-      </c>
-      <c r="F116"/>
-      <c r="G116"/>
+        <v>257</v>
+      </c>
+      <c r="F116" t="s">
+        <v>258</v>
+      </c>
+      <c r="G116" t="s">
+        <v>259</v>
+      </c>
       <c r="H116" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>226</v>
-      </c>
-      <c r="F117"/>
+        <v>261</v>
+      </c>
+      <c r="B117" t="s">
+        <v>280</v>
+      </c>
+      <c r="C117" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E117" t="s">
+        <v>282</v>
+      </c>
+      <c r="F117" t="s">
+        <v>283</v>
+      </c>
       <c r="G117" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="H117" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>